--- a/documents/billOfMaterial.xlsx
+++ b/documents/billOfMaterial.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\robot\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitHub\robot\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85DD0F0-19EC-4F09-89B1-65C6537A8214}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{FFC14B75-1B8D-4969-A9A8-EFAF25C43427}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>name</t>
   </si>
@@ -97,12 +96,15 @@
   </si>
   <si>
     <t>total cost</t>
+  </si>
+  <si>
+    <t>PREC004SAAN-RC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -465,20 +467,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDB614C-9831-46F3-9B9E-8808D547565D}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -516,7 +518,7 @@
         <v>7.4399999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -530,11 +532,11 @@
         <v>0.36</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E10" si="0">C3*D3</f>
+        <f t="shared" ref="E3:E11" si="0">C3*D3</f>
         <v>4.32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -552,7 +554,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -560,17 +562,17 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>0.06</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -588,7 +590,7 @@
         <v>1.7399999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -606,67 +608,85 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0.12</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>4</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>3.84</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>15.36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>3</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>0.94</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <f t="shared" si="0"/>
         <v>2.82</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>2.33</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <f t="shared" si="0"/>
         <v>2.33</v>
       </c>
-      <c r="F10" s="2">
-        <f>SUM(E2:E10)</f>
-        <v>36.79</v>
+      <c r="F11" s="2">
+        <f>SUM(E2:E11)</f>
+        <v>37.15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://www.mouser.com/ProductDetail/Anderson-Power-Products/1327G6FP-BK?qs=sGAEpiMZZMtjzVbpKqo2YZRH3O%252bLIhj7O6NuhGz8QmQ%3d" xr:uid="{94A9AAB2-33BF-436A-A2A0-5682A6CFF82F}"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://www.mouser.com/ProductDetail/Anderson-Power-Products/1327G6FP-BK?qs=sGAEpiMZZMtjzVbpKqo2YZRH3O%252bLIhj7O6NuhGz8QmQ%3d"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/documents/billOfMaterial.xlsx
+++ b/documents/billOfMaterial.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitHub\robot\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\robot\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCD9347-2702-4FC5-80B2-83EA87D993E9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>name</t>
   </si>
@@ -86,12 +87,6 @@
     <t>regulator</t>
   </si>
   <si>
-    <t>PCA9685PW</t>
-  </si>
-  <si>
-    <t>led/servo driver</t>
-  </si>
-  <si>
     <t>part cost</t>
   </si>
   <si>
@@ -99,13 +94,73 @@
   </si>
   <si>
     <t>PREC004SAAN-RC</t>
+  </si>
+  <si>
+    <t>100nF cap</t>
+  </si>
+  <si>
+    <t>100uF cap</t>
+  </si>
+  <si>
+    <t>865080445010</t>
+  </si>
+  <si>
+    <t>100k resistor 1206</t>
+  </si>
+  <si>
+    <t>CRCW1206100KFKEAC</t>
+  </si>
+  <si>
+    <t>10K rsistor 1206</t>
+  </si>
+  <si>
+    <t>6.8k resistor 1206</t>
+  </si>
+  <si>
+    <t>RCG120610K0FKEA</t>
+  </si>
+  <si>
+    <t>CRCW12066K80FKEAC</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>865090442004</t>
+  </si>
+  <si>
+    <t>47uF</t>
+  </si>
+  <si>
+    <t>865090449007</t>
+  </si>
+  <si>
+    <t>6.8nF</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>VJ1206Y103JXXPW1BC</t>
+  </si>
+  <si>
+    <t>VJ1206Y682KXXCW1BC</t>
+  </si>
+  <si>
+    <t>VJ1206Y104KXXPW1BC</t>
+  </si>
+  <si>
+    <t>P0847SNL</t>
+  </si>
+  <si>
+    <t>inductor 11uH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +175,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -149,10 +210,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -467,24 +536,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -494,17 +563,17 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2">
@@ -518,11 +587,11 @@
         <v>7.4399999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C3">
@@ -532,15 +601,15 @@
         <v>0.36</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E11" si="0">C3*D3</f>
+        <f t="shared" ref="E3:E20" si="0">C3*D3</f>
         <v>4.32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4">
@@ -554,11 +623,11 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C5">
@@ -572,11 +641,11 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C6">
@@ -590,11 +659,11 @@
         <v>1.7399999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C7">
@@ -608,12 +677,12 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -626,11 +695,11 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C9">
@@ -644,11 +713,11 @@
         <v>15.36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C10">
@@ -662,33 +731,200 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>2.33</v>
+        <v>0.1</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>2.33</v>
-      </c>
-      <c r="F11" s="2">
-        <f>SUM(E2:E11)</f>
-        <v>37.15</v>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>0.19</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.57000000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>0.1</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>2.66</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>0.2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>0.1</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>0.48</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.84000000000000008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>0.34</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>1.02</v>
+      </c>
+      <c r="F20" s="2">
+        <f>SUM(E2:E20)</f>
+        <v>49.33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://www.mouser.com/ProductDetail/Anderson-Power-Products/1327G6FP-BK?qs=sGAEpiMZZMtjzVbpKqo2YZRH3O%252bLIhj7O6NuhGz8QmQ%3d"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://www.mouser.com/ProductDetail/Anderson-Power-Products/1327G6FP-BK?qs=sGAEpiMZZMtjzVbpKqo2YZRH3O%252bLIhj7O6NuhGz8QmQ%3d" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B11" r:id="rId2" display="https://www.mouser.com/ProductDetail/Vishay-Draloric/RCG120610K0FKEA?qs=sGAEpiMZZMtlubZbdhIBIPoOSO0NDdD6s2QsVimlF5w%3d" xr:uid="{048366D8-DBCA-4CC9-950F-971EEEE709E6}"/>
+    <hyperlink ref="B12" r:id="rId3" display="https://www.mouser.com/ProductDetail/Vishay/CRCW12066K80FKEA?qs=sGAEpiMZZMu61qfTUdNhG82Z6Ry1C7AqKV%2f0tV4qReU%3d" xr:uid="{F4028BA4-7796-49DB-AC7F-7A19FDA101C0}"/>
+    <hyperlink ref="B16" r:id="rId4" display="https://www.mouser.com/ProductDetail/Vishay-Vitramon/VJ1206Y682KXJCW1BC?qs=sGAEpiMZZMs0AnBnWHyRQCv4vfTUG%2fvHjiMgLHz2tc8%3d" xr:uid="{A3679260-7730-411D-B46A-7C8797DC15EE}"/>
+    <hyperlink ref="B15" r:id="rId5" display="https://www.mouser.com/ProductDetail/Vishay-Vitramon/VJ1206Y103JXXPW1BC?qs=sGAEpiMZZMs0AnBnWHyRQISGU2Vjexwg0JLYuBvdxzk%3d" xr:uid="{88D85A88-6276-4243-B75B-47A1D7DBFE55}"/>
+    <hyperlink ref="B14" r:id="rId6" display="https://www.mouser.com/ProductDetail/Pulse-Electronics/P0847SNL?qs=sGAEpiMZZMsg%252by3WlYCkUyBKyt5w5j49oTKhLZanK88%3d" xr:uid="{E9E00EE6-67B0-40DF-82E6-73FD4FF59406}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/documents/billOfMaterial.xlsx
+++ b/documents/billOfMaterial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\robot\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCD9347-2702-4FC5-80B2-83EA87D993E9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CC84ED-6DF7-4E13-9FFD-F2CBE7C91A52}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,10 +150,10 @@
     <t>VJ1206Y104KXXPW1BC</t>
   </si>
   <si>
-    <t>P0847SNL</t>
-  </si>
-  <si>
-    <t>inductor 11uH</t>
+    <t>6100-150K-RC</t>
+  </si>
+  <si>
+    <t>inductor 15uH</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,11 +796,11 @@
         <v>3</v>
       </c>
       <c r="D14">
-        <v>2.66</v>
+        <v>0.79</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>7.98</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -912,7 +912,7 @@
       </c>
       <c r="F20" s="2">
         <f>SUM(E2:E20)</f>
-        <v>49.33</v>
+        <v>43.719999999999992</v>
       </c>
     </row>
   </sheetData>

--- a/documents/billOfMaterial.xlsx
+++ b/documents/billOfMaterial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\robot\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CC84ED-6DF7-4E13-9FFD-F2CBE7C91A52}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FA0397-C4D7-448B-A8A6-2E1DC626BCF5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>name</t>
   </si>
@@ -154,6 +154,18 @@
   </si>
   <si>
     <t>inductor 15uH</t>
+  </si>
+  <si>
+    <t>DMP3028LK3-13</t>
+  </si>
+  <si>
+    <t>p channel mosfet</t>
+  </si>
+  <si>
+    <t>24k resistor 1206</t>
+  </si>
+  <si>
+    <t>CRCW120624K0FKEB</t>
   </si>
 </sst>
 </file>
@@ -537,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,7 +613,7 @@
         <v>0.36</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E20" si="0">C3*D3</f>
+        <f t="shared" ref="E3:E23" si="0">C3*D3</f>
         <v>4.32</v>
       </c>
     </row>
@@ -679,252 +691,308 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.12</v>
+        <v>0.34</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>3.84</v>
+        <v>0.12</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>15.36</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>0.94</v>
+        <v>3.84</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>2.82</v>
+        <v>15.36</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
-        <v>0.1</v>
+        <v>0.94</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.57000000000000006</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>27</v>
+        <v>45</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>0.1</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14">
-        <v>0.79</v>
+        <v>0.19</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>2.37</v>
+        <v>0.57000000000000006</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0.60000000000000009</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>0.1</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>35</v>
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17">
-        <v>0.48</v>
+        <v>0.79</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>1.44</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
       <c r="D18">
-        <v>0.28000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>0.84000000000000008</v>
+        <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>0.28999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>1.1599999999999999</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>0.48</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0.84000000000000008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20">
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
         <v>0.34</v>
       </c>
-      <c r="E20">
+      <c r="E23">
         <f t="shared" si="0"/>
         <v>1.02</v>
       </c>
-      <c r="F20" s="2">
-        <f>SUM(E2:E20)</f>
-        <v>43.719999999999992</v>
+      <c r="F23" s="2">
+        <f>SUM(E2:E23)</f>
+        <v>46.059999999999995</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://www.mouser.com/ProductDetail/Anderson-Power-Products/1327G6FP-BK?qs=sGAEpiMZZMtjzVbpKqo2YZRH3O%252bLIhj7O6NuhGz8QmQ%3d" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B11" r:id="rId2" display="https://www.mouser.com/ProductDetail/Vishay-Draloric/RCG120610K0FKEA?qs=sGAEpiMZZMtlubZbdhIBIPoOSO0NDdD6s2QsVimlF5w%3d" xr:uid="{048366D8-DBCA-4CC9-950F-971EEEE709E6}"/>
-    <hyperlink ref="B12" r:id="rId3" display="https://www.mouser.com/ProductDetail/Vishay/CRCW12066K80FKEA?qs=sGAEpiMZZMu61qfTUdNhG82Z6Ry1C7AqKV%2f0tV4qReU%3d" xr:uid="{F4028BA4-7796-49DB-AC7F-7A19FDA101C0}"/>
-    <hyperlink ref="B16" r:id="rId4" display="https://www.mouser.com/ProductDetail/Vishay-Vitramon/VJ1206Y682KXJCW1BC?qs=sGAEpiMZZMs0AnBnWHyRQCv4vfTUG%2fvHjiMgLHz2tc8%3d" xr:uid="{A3679260-7730-411D-B46A-7C8797DC15EE}"/>
-    <hyperlink ref="B15" r:id="rId5" display="https://www.mouser.com/ProductDetail/Vishay-Vitramon/VJ1206Y103JXXPW1BC?qs=sGAEpiMZZMs0AnBnWHyRQISGU2Vjexwg0JLYuBvdxzk%3d" xr:uid="{88D85A88-6276-4243-B75B-47A1D7DBFE55}"/>
-    <hyperlink ref="B14" r:id="rId6" display="https://www.mouser.com/ProductDetail/Pulse-Electronics/P0847SNL?qs=sGAEpiMZZMsg%252by3WlYCkUyBKyt5w5j49oTKhLZanK88%3d" xr:uid="{E9E00EE6-67B0-40DF-82E6-73FD4FF59406}"/>
+    <hyperlink ref="B12" r:id="rId2" display="https://www.mouser.com/ProductDetail/Vishay-Draloric/RCG120610K0FKEA?qs=sGAEpiMZZMtlubZbdhIBIPoOSO0NDdD6s2QsVimlF5w%3d" xr:uid="{048366D8-DBCA-4CC9-950F-971EEEE709E6}"/>
+    <hyperlink ref="B14" r:id="rId3" display="https://www.mouser.com/ProductDetail/Vishay/CRCW12066K80FKEA?qs=sGAEpiMZZMu61qfTUdNhG82Z6Ry1C7AqKV%2f0tV4qReU%3d" xr:uid="{F4028BA4-7796-49DB-AC7F-7A19FDA101C0}"/>
+    <hyperlink ref="B19" r:id="rId4" display="https://www.mouser.com/ProductDetail/Vishay-Vitramon/VJ1206Y682KXJCW1BC?qs=sGAEpiMZZMs0AnBnWHyRQCv4vfTUG%2fvHjiMgLHz2tc8%3d" xr:uid="{A3679260-7730-411D-B46A-7C8797DC15EE}"/>
+    <hyperlink ref="B18" r:id="rId5" display="https://www.mouser.com/ProductDetail/Vishay-Vitramon/VJ1206Y103JXXPW1BC?qs=sGAEpiMZZMs0AnBnWHyRQISGU2Vjexwg0JLYuBvdxzk%3d" xr:uid="{88D85A88-6276-4243-B75B-47A1D7DBFE55}"/>
+    <hyperlink ref="B17" r:id="rId6" display="https://www.mouser.com/ProductDetail/Pulse-Electronics/P0847SNL?qs=sGAEpiMZZMsg%252by3WlYCkUyBKyt5w5j49oTKhLZanK88%3d" xr:uid="{E9E00EE6-67B0-40DF-82E6-73FD4FF59406}"/>
+    <hyperlink ref="B16" r:id="rId7" display="https://www.mouser.com/ProductDetail/Diodes-Incorporated/DMP3028LK3-13?qs=sGAEpiMZZMshyDBzk1%2fWi0dsXOGve85x5DQW5%2fHSJfiRQfMKGbaKsA%3d%3d" xr:uid="{BB5BA008-4DC7-48F8-8E22-9A99C47A494E}"/>
+    <hyperlink ref="B13" r:id="rId8" display="https://www.mouser.com/ProductDetail/Vishay/CRCW120624K0FKEB?qs=sGAEpiMZZMtlubZbdhIBIMjSzHx9EKYECfsXdNurK4g%3d" xr:uid="{EE9B55AA-891F-4C49-AC03-5330545E2A8C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/documents/billOfMaterial.xlsx
+++ b/documents/billOfMaterial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\robot\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FA0397-C4D7-448B-A8A6-2E1DC626BCF5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CE725F-BCFA-4FC0-BF53-093347DF804B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,10 +162,10 @@
     <t>p channel mosfet</t>
   </si>
   <si>
-    <t>24k resistor 1206</t>
-  </si>
-  <si>
-    <t>CRCW120624K0FKEB</t>
+    <t>CRCW120642K2FKEA</t>
+  </si>
+  <si>
+    <t>42k resistor 1206</t>
   </si>
 </sst>
 </file>
@@ -781,20 +781,20 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -978,7 +978,7 @@
       </c>
       <c r="F23" s="2">
         <f>SUM(E2:E23)</f>
-        <v>46.059999999999995</v>
+        <v>46.11999999999999</v>
       </c>
     </row>
   </sheetData>
